--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tushar\PycharmProjects\SauceDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4152E60-F886-4D74-A5FD-F2ABFA982482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2406954-8974-4B02-9E79-399CDD4E017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="2232" windowWidth="17184" windowHeight="8880" activeTab="1" xr2:uid="{E7D5B694-5544-49F4-BD5A-F7D6961B9D9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E7D5B694-5544-49F4-BD5A-F7D6961B9D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -461,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926972D3-4787-4CA0-9CE1-B2970B56100D}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -501,4 +502,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E5937-E61C-47A5-B7BB-F019ABF6239F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>